--- a/exampleProblems/Clindamycin_phosphate/Clindamycin_phosphate.xlsx
+++ b/exampleProblems/Clindamycin_phosphate/Clindamycin_phosphate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B1F54358-011F-AF4C-A00D-CA144E502776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC625CE0-9D06-462D-AE89-7E7868D388EF}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="1380" windowWidth="14445" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="1380" windowWidth="14440" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -688,13 +688,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="283" zoomScaleNormal="283" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="283" zoomScaleNormal="283" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="70.85546875" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -719,17 +719,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
+    <row r="2" spans="1:11" ht="17">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -787,7 +787,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5">
+    <row r="3" spans="1:11" ht="17">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -816,7 +816,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5">
+    <row r="4" spans="1:11" ht="17">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5">
+    <row r="5" spans="1:11" ht="17">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -876,7 +876,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5">
+    <row r="6" spans="1:11" ht="17">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5">
+    <row r="7" spans="1:11" ht="17">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -938,7 +938,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5">
+    <row r="8" spans="1:11" ht="17">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -969,7 +969,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5">
+    <row r="9" spans="1:11" ht="17">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5">
+    <row r="10" spans="1:11" ht="17">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1029,7 +1029,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" ht="17">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5">
+    <row r="12" spans="1:11" ht="17">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5">
+    <row r="13" spans="1:11" ht="17">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1116,7 +1116,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5">
+    <row r="14" spans="1:11" ht="17">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5">
+    <row r="15" spans="1:11" ht="17">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5">
+    <row r="16" spans="1:11" ht="17">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5">
+    <row r="17" spans="1:11" ht="17">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1238,7 +1238,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5">
+    <row r="18" spans="1:11" ht="17">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1250,7 +1250,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:11" ht="16.5">
+    <row r="19" spans="1:11" ht="17">
       <c r="J19" s="11"/>
     </row>
   </sheetData>
@@ -1267,9 +1267,9 @@
       <selection sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>10</v>
@@ -1296,7 +1296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1396,7 +1396,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1421,7 +1421,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" spans="1:9" ht="17">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1521,7 +1521,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1546,7 +1546,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1646,7 +1646,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
+    <row r="17" spans="1:9" ht="17">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5">
+    <row r="18" spans="1:9" ht="17">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
+    <row r="19" spans="1:9" ht="17">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1746,7 +1746,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5">
+    <row r="20" spans="1:9" ht="17">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1757,7 +1757,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" ht="16.5">
+    <row r="21" spans="1:9" ht="17">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1768,7 +1768,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="16.5">
+    <row r="22" spans="1:9" ht="17">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1779,7 +1779,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="16.5">
+    <row r="23" spans="1:9" ht="17">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1790,7 +1790,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" ht="16.5">
+    <row r="24" spans="1:9" ht="17">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -1801,7 +1801,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" ht="16.5">
+    <row r="25" spans="1:9" ht="17">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1812,7 +1812,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" ht="16.5">
+    <row r="26" spans="1:9" ht="17">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1823,7 +1823,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" ht="16.5">
+    <row r="27" spans="1:9" ht="17">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1834,7 +1834,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" ht="16.5">
+    <row r="28" spans="1:9" ht="17">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1845,7 +1845,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5">
+    <row r="29" spans="1:9" ht="17">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1870,9 +1870,9 @@
       <selection sqref="A1:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5">
+    <row r="1" spans="1:22" ht="17">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>20</v>
@@ -1916,7 +1916,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="16.5">
+    <row r="2" spans="1:22" ht="17">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1949,7 +1949,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5">
+    <row r="3" spans="1:22" ht="17">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="16.5">
+    <row r="4" spans="1:22" ht="17">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2015,7 +2015,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5">
+    <row r="5" spans="1:22" ht="17">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2048,7 +2048,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5">
+    <row r="6" spans="1:22" ht="17">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5">
+    <row r="7" spans="1:22" ht="17">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2114,7 +2114,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5">
+    <row r="8" spans="1:22" ht="17">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2147,7 +2147,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5">
+    <row r="9" spans="1:22" ht="17">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2180,7 +2180,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5">
+    <row r="10" spans="1:22" ht="17">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5">
+    <row r="11" spans="1:22" ht="17">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -2228,7 +2228,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5">
+    <row r="12" spans="1:22" ht="17">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -2243,7 +2243,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5">
+    <row r="13" spans="1:22" ht="17">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -2258,7 +2258,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5">
+    <row r="14" spans="1:22" ht="17">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -2273,7 +2273,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5">
+    <row r="15" spans="1:22" ht="17">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -2288,7 +2288,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5">
+    <row r="16" spans="1:22" ht="17">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -2303,7 +2303,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" ht="16.5">
+    <row r="17" spans="1:22" ht="17">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -2543,12 +2543,12 @@
       <selection activeCell="B2" sqref="B2:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5">
+    <row r="1" spans="1:13" ht="17">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>20</v>
@@ -2581,7 +2581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5">
+    <row r="2" spans="1:13" ht="17">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="K2" s="11"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="17">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2645,7 +2645,7 @@
       <c r="K3" s="11"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="17">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="K4" s="11"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="17">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="K5" s="11"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="17">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2740,7 +2740,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="17">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2772,7 +2772,7 @@
       <c r="K7" s="11"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="17">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="K8" s="11"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="17">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2836,7 +2836,7 @@
       <c r="K9" s="11"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="17">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2868,7 +2868,7 @@
       <c r="K10" s="11"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="17">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="K11" s="11"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="17">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="17">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="17">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2994,7 +2994,7 @@
       <c r="K14" s="11"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="17">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -3026,7 +3026,7 @@
       <c r="K15" s="11"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="17">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3057,7 +3057,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5">
+    <row r="17" spans="1:11" ht="17">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3088,7 +3088,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5">
+    <row r="18" spans="1:11" ht="17">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3119,7 +3119,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11" ht="16.5">
+    <row r="19" spans="1:11" ht="17">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -3150,7 +3150,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:11" ht="16.5">
+    <row r="20" spans="1:11" ht="17">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -3163,7 +3163,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:11" ht="16.5">
+    <row r="21" spans="1:11" ht="17">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -3176,7 +3176,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:11" ht="16.5">
+    <row r="22" spans="1:11" ht="17">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -3189,7 +3189,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:11" ht="16.5">
+    <row r="23" spans="1:11" ht="17">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -3202,7 +3202,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5">
+    <row r="24" spans="1:11" ht="17">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -3215,7 +3215,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:11" ht="16.5">
+    <row r="25" spans="1:11" ht="17">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -3228,7 +3228,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:11" ht="16.5">
+    <row r="26" spans="1:11" ht="17">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -3255,13 +3255,13 @@
       <selection sqref="A1:K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5">
+    <row r="1" spans="1:22" ht="17">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>20</v>
@@ -3304,7 +3304,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="16.5">
+    <row r="2" spans="1:22" ht="17">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3335,7 +3335,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5">
+    <row r="3" spans="1:22" ht="17">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:22" ht="16.5">
+    <row r="4" spans="1:22" ht="17">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -3397,7 +3397,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5">
+    <row r="5" spans="1:22" ht="17">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5">
+    <row r="6" spans="1:22" ht="17">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5">
+    <row r="7" spans="1:22" ht="17">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -3490,7 +3490,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5">
+    <row r="8" spans="1:22" ht="17">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3521,7 +3521,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5">
+    <row r="9" spans="1:22" ht="17">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5">
+    <row r="10" spans="1:22" ht="17">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5">
+    <row r="11" spans="1:22" ht="17">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3614,7 +3614,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5">
+    <row r="12" spans="1:22" ht="17">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -3645,7 +3645,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5">
+    <row r="13" spans="1:22" ht="17">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -3676,7 +3676,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5">
+    <row r="14" spans="1:22" ht="17">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -3707,7 +3707,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5">
+    <row r="15" spans="1:22" ht="17">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5">
+    <row r="16" spans="1:22" ht="17">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3769,7 +3769,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5">
+    <row r="17" spans="1:11" ht="17">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3800,7 +3800,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5">
+    <row r="18" spans="1:11" ht="17">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3831,7 +3831,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11" ht="16.5">
+    <row r="19" spans="1:11" ht="17">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -3862,7 +3862,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:11" ht="16.5">
+    <row r="20" spans="1:11" ht="17">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -3893,7 +3893,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:11" ht="16.5">
+    <row r="21" spans="1:11" ht="17">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -3924,7 +3924,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="1:11" ht="16.5">
+    <row r="22" spans="1:11" ht="17">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:11" ht="16.5">
+    <row r="23" spans="1:11" ht="17">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5">
+    <row r="24" spans="1:11" ht="17">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -4017,7 +4017,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:11" ht="16.5">
+    <row r="25" spans="1:11" ht="17">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -4048,7 +4048,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:11" ht="16.5">
+    <row r="26" spans="1:11" ht="17">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -4079,7 +4079,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:11" ht="16.5">
+    <row r="27" spans="1:11" ht="17">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -4110,7 +4110,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:11" ht="16.5">
+    <row r="28" spans="1:11" ht="17">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -4141,7 +4141,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:11" ht="16.5">
+    <row r="29" spans="1:11" ht="17">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -4172,7 +4172,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5">
+    <row r="30" spans="1:11" ht="17">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -4185,7 +4185,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
     </row>
-    <row r="31" spans="1:11" ht="16.5">
+    <row r="31" spans="1:11" ht="17">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -4212,9 +4212,9 @@
       <selection activeCell="I11" sqref="A2:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>10</v>
@@ -4364,9 +4364,9 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="21">
+    <row r="1" spans="1:11" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -4405,6 +4405,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -4621,22 +4636,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4653,29 +4678,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>